--- a/data/trans_media/dukeCONF-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,88; 78,48</t>
+          <t>75,78; 78,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,73; 82,23</t>
+          <t>79,63; 82,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,05; 79,8</t>
+          <t>77,17; 79,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,16; 78,91</t>
+          <t>75,12; 78,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,41; 75,82</t>
+          <t>73,47; 75,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,8; 80,86</t>
+          <t>78,68; 80,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,51; 77,09</t>
+          <t>74,52; 77,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,33; 76,94</t>
+          <t>74,31; 76,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,84; 76,68</t>
+          <t>74,86; 76,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,53; 81,14</t>
+          <t>79,52; 81,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,05; 77,94</t>
+          <t>76,1; 77,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,08; 77,23</t>
+          <t>75,05; 77,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,8; 85,43</t>
+          <t>83,74; 85,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,37; 85,91</t>
+          <t>84,45; 86,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,12; 81,59</t>
+          <t>80,02; 81,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,05; 86,21</t>
+          <t>84,09; 86,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,57; 83,45</t>
+          <t>81,63; 83,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,85; 83,6</t>
+          <t>81,76; 83,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,24; 81,72</t>
+          <t>80,31; 81,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,11; 84,73</t>
+          <t>83,21; 84,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,0; 84,15</t>
+          <t>83,0; 84,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,43; 84,61</t>
+          <t>83,36; 84,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,4; 81,41</t>
+          <t>80,39; 81,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>83,85; 85,22</t>
+          <t>83,89; 85,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,22; 86,25</t>
+          <t>83,4; 86,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,08; 88,33</t>
+          <t>85,22; 88,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,71; 86,28</t>
+          <t>83,6; 86,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,82; 88,66</t>
+          <t>85,85; 88,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,99; 86,18</t>
+          <t>82,96; 86,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,21; 88,84</t>
+          <t>86,04; 88,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,57; 86,22</t>
+          <t>83,51; 86,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,56; 89,61</t>
+          <t>87,66; 89,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,69; 85,83</t>
+          <t>83,75; 85,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,23; 88,31</t>
+          <t>86,19; 88,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,95; 85,8</t>
+          <t>83,99; 85,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,11; 88,83</t>
+          <t>87,21; 88,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,71; 82,99</t>
+          <t>81,68; 82,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,55; 84,84</t>
+          <t>83,58; 84,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,37; 81,5</t>
+          <t>80,41; 81,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,44; 85,14</t>
+          <t>83,47; 85,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,08; 80,46</t>
+          <t>79,1; 80,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,66; 82,86</t>
+          <t>81,58; 82,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,56; 80,69</t>
+          <t>79,51; 80,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,42; 83,64</t>
+          <t>82,45; 83,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,55; 81,5</t>
+          <t>80,51; 81,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,78; 83,67</t>
+          <t>82,78; 83,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,16; 80,97</t>
+          <t>80,14; 80,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,09; 84,16</t>
+          <t>83,09; 84,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeCONF-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,78; 78,46</t>
+          <t>75,88; 78,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,63; 82,29</t>
+          <t>79,89; 82,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,17; 79,86</t>
+          <t>77,23; 79,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,47; 75,91</t>
+          <t>73,56; 75,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,68; 80,81</t>
+          <t>78,66; 80,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,52; 77,25</t>
+          <t>74,41; 76,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,86; 76,78</t>
+          <t>74,81; 76,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,52; 81,1</t>
+          <t>79,48; 81,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,1; 77,83</t>
+          <t>75,9; 77,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,74; 85,38</t>
+          <t>83,79; 85,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,45; 86,05</t>
+          <t>84,41; 85,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,02; 81,49</t>
+          <t>79,99; 81,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,63; 83,41</t>
+          <t>81,61; 83,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,76; 83,5</t>
+          <t>81,79; 83,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,31; 81,69</t>
+          <t>80,29; 81,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,0; 84,22</t>
+          <t>82,99; 84,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,36; 84,54</t>
+          <t>83,46; 84,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,39; 81,42</t>
+          <t>80,35; 81,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,4; 86,43</t>
+          <t>83,38; 86,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,22; 88,53</t>
+          <t>85,16; 88,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,6; 86,07</t>
+          <t>83,58; 86,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,96; 86,11</t>
+          <t>82,74; 86,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,04; 88,85</t>
+          <t>86,09; 88,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,51; 86,06</t>
+          <t>83,72; 86,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,75; 85,82</t>
+          <t>83,57; 85,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,19; 88,28</t>
+          <t>86,16; 88,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,99; 85,77</t>
+          <t>83,99; 85,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,68; 82,99</t>
+          <t>81,7; 83,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,58; 84,84</t>
+          <t>83,65; 84,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,41; 81,55</t>
+          <t>80,37; 81,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,1; 80,47</t>
+          <t>79,08; 80,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,58; 82,81</t>
+          <t>81,62; 82,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,51; 80,69</t>
+          <t>79,59; 80,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,51; 81,5</t>
+          <t>80,56; 81,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,78; 83,64</t>
+          <t>82,77; 83,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,14; 80,97</t>
+          <t>80,18; 80,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
